--- a/biology/Botanique/Annona/Annona.xlsx
+++ b/biology/Botanique/Annona/Annona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annona est un genre de plantes à fleurs de la famille des Annonaceae. Ce sont les annones ou anones. Ce genre contient entre 100 et 150 espèces d'arbres ou arbustes tropicaux. De très nombreuses espèces ont un intérêt gastronomique, médical, pharmaceutique, etc. Si quelques espèces se trouvent en Afrique, la plupart se trouvent donc en Amérique. Le nom du genre dérive du Taíno annon.
 Plusieurs de leurs fruits sont appréciés dans diverses parties du globe, et certains sont nommés en français annone, bien que ce terme désigne particulièrement celui d‘Annona cherimola.
@@ -514,7 +526,9 @@
           <t>Listes d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sélection d'espèces :
 Annona ambotay Aubl.
@@ -535,7 +549,7 @@
 Annona squamosa - Attier ou pommier-cannelle
 Annona triloba, synonyme de Asimina triloba - Asiminier (trilobé)
 Le genre comporte entre autres les espèces suivantes :
-selon GBIF       (18 février 2023)[1] :
+selon GBIF       (18 février 2023) :
 Annona acuminata Saff.
 Annona acutiflora Mart.
 Annona amambayensis Hassl., 1917
@@ -782,8 +796,8 @@
 Rollinia longifoliae St.Hilarie
 Rollinia prancei Aristeg.
 Rollinia sylvatica Warm.
-selon Tropicos                                           (18 février 2023)[2] (Attention liste brute contenant possiblement des synonymes) :
-Annona acuminata Saff., 1912-1916 [1913]
+selon Tropicos                                           (18 février 2023) (Attention liste brute contenant possiblement des synonymes) :
+Annona acuminata Saff., 1912-1916 
 Annona acutiflora Mart., 1841
 Annona acutifolia Saff. ex R.E. Fr., 1931
 Annona aethiopica (Dunal) Steud., 1841
@@ -791,7 +805,7 @@
 Annona amazonica R.E. Fr., 1931
 Annona ambotay Aubl., 1775
 Annona amplexicaulis Lam., 1786
-Annona andicola (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona andicola (Maas &amp; Westra) H. Rainer, 2006 
 Annona angustifolia Huber, 1909
 Annona annonoides (R.E. Fr.) Maas &amp; Westra, 1992
 Annona antioquensis Linden, 1871
@@ -802,32 +816,32 @@
 Annona atabapensis Kunth, 1821
 Annona × atemoya Mabb., 1998
 Annona aurantiaca Barb. Rodr., 1898
-Annona australis A. St.-Hil., 1825 [1824]
+Annona australis A. St.-Hil., 1825 
 Annona axillaris Ruiz
 Annona axillaris Ruiz ex R.E. Fr., 1937
 Annona axilliflora DC., 1824
-Annona bahiensis (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona bahiensis (Maas &amp; Westra) H. Rainer, 2006 
 Annona barteri Benth., 1862
 Annona bibracteata Hook., 1841
 Annona bicolor Urb., 1912
 Annona biflora Sessé &amp; Moc., 1894
 Annona biflora Ruiz &amp; Pav. ex G. Don, 1831
 Annona billbergii R.E. Fr., 1931
-Annona boliviana (R.E. Fr.) H. Rainer, 2006 [2007]
+Annona boliviana (R.E. Fr.) H. Rainer, 2006 
 Annona bonplandiana Kunth, 1821
 Annona bullata A. Rich., 1845
 Annona burchellii R.E. Fr., 1931
 Annona caatingae H. Rainer
 Annona cacans Warm., 1873
 Annona caesia G.E. Schatz, C.A. Ramos &amp; O. Ortiz, 2015
-Annona calcarata (R.E. Fr.) H. Rainer, 2006 [2007]
+Annona calcarata (R.E. Fr.) H. Rainer, 2006 
 Annona calophylla R.E. Fr., 1931
 Annona campestris R.E. Fr., 1931
 Annona caput-medusae Westra &amp; H. Rainer, 2019
 Annona cascarilloides Griseb., 1866
 Annona cauliflora Mart.
 Annona cearensis Barb. Rodr., 1898
-Annona centrantha (R.E. Fr.) H. Rainer, 2006 [2007]
+Annona centrantha (R.E. Fr.) H. Rainer, 2006 
 Annona cercocarpa Saff., 1913
 Annona cherimola Mill., 1768
 Annona cherimolia Mill., 1768
@@ -850,7 +864,7 @@
 Annona cordifolia Poepp. ex Maas &amp; Westra, 1992
 Annona cordifolia Poepp. ex Szyszył., 1894
 Annona coriacea Mart., 1841
-Annona cornifolia A. St.-Hil., 1825 [1824]
+Annona cornifolia A. St.-Hil., 1825 
 Annona crassiflora Mart., 1841
 Annona crassifolia Mart.
 Annona crassivenia Saff., 1914
@@ -858,20 +872,20 @@
 Annona crotonifolia Mart., 1841
 Annona cubensis R.E. Fr., 1927
 Annona cuneata (Oliv.) R.E. Fr., 1914
-Annona cuspidata (Mart.) H. Rainer, 2006 [2007]
+Annona cuspidata (Mart.) H. Rainer, 2006 
 Annona cuyabaensis Barb. Rodr., 1898
-Annona danforthii (Standl.) H. Rainer, 2006 [2007]
+Annona danforthii (Standl.) H. Rainer, 2006 
 Annona deceptrix (Westra) H. Rainer, 2001
 Annona deminuta R.E. Fr., 1934
 Annona densicoma Mart., 1841
-Annona depressa Baill., 1867-1868 [1868]
-Annona dioica A. St.-Hil., 1825 [1824]
+Annona depressa Baill., 1867-1868 
+Annona dioica A. St.-Hil., 1825 
 Annona discreta L., 1775
 Annona distincta Raeusch., 1797
 Annona diversifolia Saff., 1911
 Annona dodecapetala Lam., 1786
 Annona dolabripetala Raddi, 1820
-Annona dolichopetala (R.E. Fr.) H. Rainer, 2006 [2007]
+Annona dolichopetala (R.E. Fr.) H. Rainer, 2006 
 Annona dolichophylla R.E. Fr., 1947
 Annona domingensis R.E. Fr., 1931
 Annona duckei Diels, 1931
@@ -879,25 +893,25 @@
 Annona dumetorum R.E. Fr., 1931
 Annona echinata Dunal, 1817
 Annona ecuadorensis R.E. Fr., 1959
-Annona edulis (Triana &amp; Planch.) H. Rainer, 2006 [2007]
+Annona edulis (Triana &amp; Planch.) H. Rainer, 2006 
 Annona ekmanii R.E. Fr., 1927
 Annona elliptica R.E. Fr., 1927
-Annona emarginata (Schltdl.) H. Rainer, 2006 [2007]
+Annona emarginata (Schltdl.) H. Rainer, 2006 
 Annona exalbida Vell., 1829
 Annona excellens R.E. Fr., 1931
 Annona excelsa Kunth, 1821
 Annona exsucca DC. ex Dunal, 1817
 Annona fagifolia Saint-Hilaire &amp; Tulasne, 1842
-Annona fendleri (R.E. Fr.) H. Rainer, 2006 [2007]
-Annona ferruginea (R.E. Fr.) H. Rainer, 2006 [2007]
+Annona fendleri (R.E. Fr.) H. Rainer, 2006 
+Annona ferruginea (R.E. Fr.) H. Rainer, 2006 
 Annona foetida Mart., 1841
-Annona forskahlii DC., 1818 [1817]
-Annona forsskalii (Forssk.) DC., 1818 [1817]
-Annona fosteri (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona forskahlii DC., 1818 
+Annona forsskalii (Forssk.) DC., 1818 
+Annona fosteri (Maas &amp; Westra) H. Rainer, 2006 
 Annona friesii Robyns &amp; Ghesq.
 Annona frutescens R.E. Fr., 1927
 Annona fruticosa Sessé &amp; Moc., 1894
-Annona furfuracea A. St.-Hil., 1825 [1824]
+Annona furfuracea A. St.-Hil., 1825 
 Annona gardneri R.E. Fr., 1931
 Annona geraensis Barb. Rodr., 1898
 Annona gigantophylla (R.E. Fr.) R.E. Fr., 1960
@@ -907,7 +921,7 @@
 Annona glauca Schumach. &amp; Thonn., 1824
 Annona glaucophylla R.E. Fr., 1904
 Annona globiflora Schltdl., 1836
-Annona glomerulifera (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona glomerulifera (Maas &amp; Westra) H. Rainer, 2006 
 Annona gracilis R.E. Fr., 1927
 Annona grandiflora W. Bartram, 1791
 Annona grandiflora Lam., 1786
@@ -918,11 +932,11 @@
 Annona havanensis R.E. Fr., 1927
 Annona hayesii Saff. ex Standl., 1925
 Annona heinsenii Engl. &amp; Diels
-Annona helosioides (Maas &amp; Westra) H. Rainer, 2006 [2007]
-Annona herzogii (R.E. Fr.) H. Rainer, 2006 [2007]
-Annona hexapetala L. f., 1781 [1782]
-Annona hispida (Maas &amp; Westra) H. Rainer, 2006 [2007]
-Annona holosericea Saff., 1912-1916 [1913]
+Annona helosioides (Maas &amp; Westra) H. Rainer, 2006 
+Annona herzogii (R.E. Fr.) H. Rainer, 2006 
+Annona hexapetala L. f., 1781 
+Annona hispida (Maas &amp; Westra) H. Rainer, 2006 
+Annona holosericea Saff., 1912-1916 
 Annona hostmannii Steud., 1843
 Annona humboldtiana Kunth, 1821
 Annona humboldtii Dun., 1817
@@ -935,13 +949,13 @@
 Annona inconformis Pittier, 1938
 Annona insignis R.E. Fr., 1931
 Annona insularis Hemsl. ex Millsp., 1895
-Annona involucrata Baill., 1867-1868 [1868]
+Annona involucrata Baill., 1867-1868 
 Annona ionophylla Triana &amp; Planch., 1862
 Annona iquitensis R.E. Fr., 1931
 Annona jahnii Saff., 1914
 Annona jamaicensis Sprague, 1906
 Annona jenmanii Saff., 1913
-Annona jucunda (Diels) H. Rainer, 2006 [2007]
+Annona jucunda (Diels) H. Rainer, 2006 
 Annona klainei Pierre ex Engl. &amp; Diels
 Annona klainii Pierre ex Engl. &amp; Diels
 Annona laevigata Mart., 1841
@@ -951,28 +965,28 @@
 Annona latifolia Scott Elliot, 1895
 Annona laurentii Engl. &amp; Diels
 Annona laurifolia Dunal, 1817
-Annona lepidota Miq., 1847 [1846]
-Annona leptopetala (R.E. Fr.) H. Rainer, 2006 [2007]
-Annona liebmanniana Baill., 1867-1868 [1868]
+Annona lepidota Miq., 1847 
+Annona leptopetala (R.E. Fr.) H. Rainer, 2006 
+Annona liebmanniana Baill., 1867-1868 
 Annona longepetiolata Robyns &amp; Ghesq.
 Annona longiflora S. Watson, 1887
 Annona longifolia Sessé &amp; Moc., 1894
 Annona longifolia Aubl., 1775
 Annona longipedicellata A.C. Webber &amp; Gottsb., 2020
 Annona longipes Saff., 1913
-Annona lutescens Saff., 1914-1917 [1914]
+Annona lutescens Saff., 1914-1917 
 Annona macrocalyx R.E. Fr., 1931
 Annona macrocarpa Wercklé, 1903
 Annona macrocarpa Barb. Rodr., 1898
 Annona macroprophyllata Donn. Sm., 1910
 Annona malmeana R.E. Fr., 1900
-Annona mammifera (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona mammifera (Maas &amp; Westra) H. Rainer, 2006 
 Annona manabiensis Saff. ex R.E. Fr., 1931
 Annona manirote Kunth, 1821
 Annona mannii Oliv., 1867
 Annona mannii D. Oliver
 Annona marcgravii Mart., 1841
-Annona maritima (Záchia) H. Rainer, 2006 [2007]
+Annona maritima (Záchia) H. Rainer, 2006 
 Annona maxima Sloane, 1725
 Annona membranacea R.E. Fr.
 Annona micrantha Bertero ex Spreng., 1825
@@ -989,16 +1003,16 @@
 Annona nana Exell
 Annona nano-fruticosa Herzog, 1909
 Annona neglecta R.E. Fr., 1937
-Annona neoamazonica H. Rainer, 2006 [2007]
-Annona neochrysocarpa H. Rainer, 2006 [2007]
-Annona neoecuadoarensis H. Rainer, 2006 [2007]
-Annona neoelliptica H. Rainer &amp; Maas, 2006 [2007]
-Annona neoinsignis H. Rainer, 2006 [2007]
-Annona neolaurifolia H. Rainer, 2006 [2007]
-Annona neosalicifolia H. Rainer, 2006 [2007]
-Annona neosericea H. Rainer, 2006 [2007]
-Annona neoulei H. Rainer, 2006 [2007]
-Annona neovelutina H. Rainer, 2006 [2007]
+Annona neoamazonica H. Rainer, 2006 
+Annona neochrysocarpa H. Rainer, 2006 
+Annona neoecuadoarensis H. Rainer, 2006 
+Annona neoelliptica H. Rainer &amp; Maas, 2006 
+Annona neoinsignis H. Rainer, 2006 
+Annona neolaurifolia H. Rainer, 2006 
+Annona neosalicifolia H. Rainer, 2006 
+Annona neosericea H. Rainer, 2006 
+Annona neoulei H. Rainer, 2006 
+Annona neovelutina H. Rainer, 2006 
 Annona nipensis Alain, 1960
 Annona nitida Willd. ex Steud., 1840
 Annona nitida Ruiz &amp; Pav., 1959
@@ -1012,16 +1026,16 @@
 Annona oleifolia Westra &amp; H. Rainer, 2019
 Annona oligocarpa R.E. Fr., 1948
 Annona oxapampae Maas &amp; Westra, 2010
-Annona pachyantha (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona pachyantha (Maas &amp; Westra) H. Rainer, 2006 
 Annona palmeri Saff., 1914
 Annona paludosa Aubl., 1775
 Annona palustris Small
 Annona palustris L., 1762
-Annona papilionella (Diels) H. Rainer, 2006 [2007]
+Annona papilionella (Diels) H. Rainer, 2006 
 Annona paraensis R.E. Fr., 1931
 Annona paraguayensis R.E. Fr., 1904
 Annona parviflora Ruiz &amp; Pav. ex E.A. López, 1959
-Annona parviflora (A. St.-Hil.) H. Rainer, 2006 [2007]
+Annona parviflora (A. St.-Hil.) H. Rainer, 2006 
 Annona parviflora Ruiz &amp; Pav. ex G. Don, 1831
 Annona parviflora Ruiz &amp; Pav. ex R.E. Fr., 1934
 Annona peduncularis Steud., 1843
@@ -1029,14 +1043,14 @@
 Annona perrottetii A. DC., 1832
 Annona peruviana Humb. &amp; Bonpl. ex Dunal, 1817
 Annona phaeoclados Mart., 1841
-Annona pickelii (Diels) H. Rainer, 2006 [2007]
+Annona pickelii (Diels) H. Rainer, 2006 
 Annona pisonis Mart., 1841
 Annona pittieri Donn. Sm., 1897
 Annona poeppigii (Mart.) Maas &amp; Westra, 1992
 Annona porpetac Boiv. ex H. Baillon, 1882
 Annona praetermissa Fawc. &amp; Rendle
 Annona praetermissa Rendle, 1914
-Annona prestoei Hemsl., 1899 [1897]
+Annona prestoei Hemsl., 1899 
 Annona prevostiae H. Rainer, 2002
 Annona primigenia Standl. &amp; Steyerm., 1943
 Annona pruinosa G.E. Schatz, 1992
@@ -1051,7 +1065,7 @@
 Annona pygmaea W. Bartram, 1791
 Annona pyriformis Bojer ex Baker, 1877
 Annona quinduensis Kunth, 1821
-Annona rensoniana (Standl.) H. Rainer, 2006 [2007]
+Annona rensoniana (Standl.) H. Rainer, 2006 
 Annona reticulata L., 1753
 Annona rhizantha Eichler, 1883
 Annona rhombipetala Ruiz &amp; Pav. ex G. Don
@@ -1061,17 +1075,17 @@
 Annona rosei Saff., 1914
 Annona rufa Lundell, 1974
 Annona rufa C. Presl, 1835
-Annona rufinervis (Triana &amp; Planch.) H. Rainer, 2006 [2007]
-Annona rugulosa (Schltdl.) H. Rainer, 2006 [2007]
+Annona rufinervis (Triana &amp; Planch.) H. Rainer, 2006 
+Annona rugulosa (Schltdl.) H. Rainer, 2006 
 Annona saffordiana R.E. Fr., 1931
 Annona salicifolia Ekman &amp; R.E. Fr., 1929
 Annona salzmannii A. DC., 1832
 Annona sanctae-crucis S. Moore, 1895
 Annona scandens Diels, 1905
-Annona schunkei (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona schunkei (Maas &amp; Westra) H. Rainer, 2006 
 Annona scleroderma Saff., 1913
 Annona sclerophylla Saff., 1914
-Annona senegalensis Pers., 1807 [1806]
+Annona senegalensis Pers., 1807 
 Annona sericea Dunal, 1817
 Annona sessiliflora Benth., 1853
 Annona silvestris Vell., 1829
@@ -1090,12 +1104,12 @@
 Annona tenuipes R.E. Fr., 1950
 Annona tessmannii Diels, 1924
 Annona testudinea Saff., 1913
-Annona tomentosa R.E. Fr., 1905-1906 [1905]
+Annona tomentosa R.E. Fr., 1905-1906 
 Annona triloba L., 1753
 Annona trinitensis Saff., 1913
 Annona tripetala Aiton, 1789
 Annona trunciflora R.E. Fr., 1957
-Annona ubatubensis (Maas &amp; Westra) H. Rainer, 2006 [2007]
+Annona ubatubensis (Maas &amp; Westra) H. Rainer, 2006 
 Annona ulei R.E. Fr., 1931
 Annona uliginosa Kunth, 1821
 Annona uncinata Sprague, 1905
@@ -1108,7 +1122,7 @@
 Annona volubilis Lundell, 1974
 Annona walkeri S. Moore, 1895
 Annona warmingiana Mello-Silva &amp; Pirani, 1999
-Annona williamsii (Rusby ex R.E. Fr.) H. Rainer, 2006 [2007]
+Annona williamsii (Rusby ex R.E. Fr.) H. Rainer, 2006 
 Annona xestropetala Spreng., 1825
 Annona xylopiifolia A. St.-Hil., 1842
 Annona zenkeri Engl. &amp; Diels
